--- a/Daftar - Punya Kontrak.xlsx
+++ b/Daftar - Punya Kontrak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C6DE6F-4EFA-4989-A2E4-592F091ECE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF699370-E50F-4050-9383-B220A6CF45D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{13DCBBDA-4FB5-4FE2-AEAD-F1351FF3F90C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{13DCBBDA-4FB5-4FE2-AEAD-F1351FF3F90C}"/>
   </bookViews>
   <sheets>
     <sheet name="tidak ubah no hp" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="38">
   <si>
     <t>noPolisi</t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>lakilaki</t>
+  </si>
+  <si>
+    <t>tglLahir</t>
+  </si>
+  <si>
+    <t>tglJatuhTempo</t>
+  </si>
+  <si>
+    <t>digitTerakhirKontrak</t>
+  </si>
+  <si>
+    <t>nilaiAngsuran</t>
+  </si>
+  <si>
+    <t>B2688RM</t>
+  </si>
+  <si>
+    <t>noPolisiTidakDapatDiproses</t>
+  </si>
+  <si>
+    <t>noTelpBaru</t>
+  </si>
+  <si>
+    <t>083116242603</t>
   </si>
 </sst>
 </file>
@@ -165,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +208,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -294,25 +324,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -320,12 +393,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,25 +404,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -667,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA1CF36-F9D8-4A74-935D-7AC8F13C89EB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="C3:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,346 +779,768 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
         <v>6657</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6657</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6657</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6657</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6657</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6657</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6657</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="37">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6657</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6657</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="27">
+        <v>6657</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H12" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="15">
-        <v>6657</v>
-      </c>
-      <c r="C3" s="14" t="s">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="28">
+        <v>6656</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H13" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>6657</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>6657</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6657</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6657</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6657</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6657</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="18">
-        <v>6657</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="20">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6657</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8">
-        <v>6657</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{65761BDE-61A4-446A-A526-7A99CACB2DD0}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{CC945380-A870-4A51-861A-B044B7C6B1C1}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{1F3D3093-0451-48DB-99C6-34428CDC33EE}"/>
-    <hyperlink ref="D6" r:id="rId4" display="rizkaaa20@gmail.com" xr:uid="{5FC45FC4-AA31-40E7-A41D-5E70ACDC9727}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{94AB4010-1ABD-421D-9692-CEFAF267381B}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{91176038-FE3B-40ED-9AA1-9CBB00A8BB50}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{797C6A3A-8FF6-4787-9AE2-029A40363CF0}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{2845F1D2-E539-4B64-B1E1-41855C59F58A}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{D859C1F0-2E30-4CF9-AE4E-9AD259702046}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{B8488FAD-07A2-4222-B3CF-4B44ED63DE2A}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{65761BDE-61A4-446A-A526-7A99CACB2DD0}"/>
+    <hyperlink ref="D5" r:id="rId2" display="rizkaaa20@gmail.com" xr:uid="{5FC45FC4-AA31-40E7-A41D-5E70ACDC9727}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{94AB4010-1ABD-421D-9692-CEFAF267381B}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{91176038-FE3B-40ED-9AA1-9CBB00A8BB50}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{797C6A3A-8FF6-4787-9AE2-029A40363CF0}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{2845F1D2-E539-4B64-B1E1-41855C59F58A}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{D859C1F0-2E30-4CF9-AE4E-9AD259702046}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{931D23FD-49AF-4BB7-BFDB-3CD933D19871}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59E38E4-DA00-43E1-B004-73E79B6CC446}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="9">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="21">
+        <v>123456</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10">
+        <v>34423</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9">
+        <v>21</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6866</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2584000</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15">
+        <v>34423</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="14">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14">
+        <v>6866</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2584000</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="15">
+        <v>34423</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="14">
+        <v>21</v>
+      </c>
+      <c r="E13" s="14">
+        <v>6866</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2584000</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" display="rizkaaa20@gmail.com" xr:uid="{009D503E-224B-4D4B-95A8-E8AE228C500C}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{B9DAF46E-6970-415A-967D-7F23A49A27C5}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{D8E5A864-FD0C-4F5C-9A95-59BB948DED83}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{83B5DBAE-345E-4CBD-95EC-F429312E9D59}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{057F1F30-82CF-4AFC-AC3B-D6DB68BF800F}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{70A1A6BA-2AF9-4C10-9C45-EBCE55B23EE7}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{8BB50CFE-5DA1-496D-8B23-61565EFAED8F}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{ABCA13C2-F8D4-4383-977F-3A20D8089EFF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Daftar - Punya Kontrak.xlsx
+++ b/Daftar - Punya Kontrak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF699370-E50F-4050-9383-B220A6CF45D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE37C23-D6EE-4BB4-93EB-15DAD1E289FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{13DCBBDA-4FB5-4FE2-AEAD-F1351FF3F90C}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="13440" windowHeight="11070" xr2:uid="{13DCBBDA-4FB5-4FE2-AEAD-F1351FF3F90C}"/>
   </bookViews>
   <sheets>
     <sheet name="tidak ubah no hp" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
   <si>
     <t>noPolisi</t>
   </si>
@@ -54,9 +54,6 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>B2680RM</t>
-  </si>
-  <si>
     <t>Rizka Ricis</t>
   </si>
   <si>
@@ -120,12 +117,6 @@
     <t>ABCDEFG</t>
   </si>
   <si>
-    <t>Tresna Adi</t>
-  </si>
-  <si>
-    <t>lakilaki</t>
-  </si>
-  <si>
     <t>tglLahir</t>
   </si>
   <si>
@@ -138,23 +129,41 @@
     <t>nilaiAngsuran</t>
   </si>
   <si>
-    <t>B2688RM</t>
-  </si>
-  <si>
     <t>noPolisiTidakDapatDiproses</t>
   </si>
   <si>
     <t>noTelpBaru</t>
   </si>
   <si>
-    <t>083116242603</t>
+    <t>B2222BBB</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>B3213BCD</t>
+  </si>
+  <si>
+    <t>passTidakSesuai</t>
+  </si>
+  <si>
+    <t>085876076657</t>
+  </si>
+  <si>
+    <t>rizkaproject20@gmail.com</t>
+  </si>
+  <si>
+    <t>A12222</t>
+  </si>
+  <si>
+    <t>fairytailfg@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +195,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,21 +290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -313,17 +321,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -379,13 +376,33 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -393,63 +410,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,17 +792,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA1CF36-F9D8-4A74-935D-7AC8F13C89EB}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="C3:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -783,11 +811,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -805,296 +833,266 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>35</v>
       </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>6</v>
+      <c r="A3" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>6657</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="33"/>
+      <c r="C3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>6</v>
+      <c r="A4" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>6657</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="26"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>6</v>
+      <c r="A5" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>6657</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>6</v>
+      <c r="A6" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>6657</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>6</v>
+      <c r="A7" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>6657</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="2"/>
       <c r="H7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>6</v>
+      <c r="A8" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <v>6657</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>26</v>
+      <c r="F8" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>6</v>
+      <c r="A9" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>6657</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="37">
-        <v>123456</v>
+      <c r="F9" s="27">
+        <v>1234567</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>6</v>
+      <c r="A10" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>6657</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>27</v>
+      <c r="F10" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
         <v>6657</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
+      <c r="C11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="27">
+      <c r="A12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1">
         <v>6657</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="28">
-        <v>6656</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{65761BDE-61A4-446A-A526-7A99CACB2DD0}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{65761BDE-61A4-446A-A526-7A99CACB2DD0}"/>
     <hyperlink ref="D5" r:id="rId2" display="rizkaaa20@gmail.com" xr:uid="{5FC45FC4-AA31-40E7-A41D-5E70ACDC9727}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{94AB4010-1ABD-421D-9692-CEFAF267381B}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{91176038-FE3B-40ED-9AA1-9CBB00A8BB50}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{797C6A3A-8FF6-4787-9AE2-029A40363CF0}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{2845F1D2-E539-4B64-B1E1-41855C59F58A}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{D859C1F0-2E30-4CF9-AE4E-9AD259702046}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{931D23FD-49AF-4BB7-BFDB-3CD933D19871}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{91176038-FE3B-40ED-9AA1-9CBB00A8BB50}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{797C6A3A-8FF6-4787-9AE2-029A40363CF0}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{2845F1D2-E539-4B64-B1E1-41855C59F58A}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{D859C1F0-2E30-4CF9-AE4E-9AD259702046}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59E38E4-DA00-43E1-B004-73E79B6CC446}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1102,445 +1100,412 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1234567</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9">
+        <v>34715</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="31">
+        <v>8246</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3890000</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="13" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="14">
+        <v>34715</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="33">
+        <v>8246</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3890000</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="9">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="9">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="9">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="9">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="9">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="9">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="21">
-        <v>123456</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="9">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10">
-        <v>34423</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="9">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6866</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2584000</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="15">
-        <v>34423</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="14">
-        <v>21</v>
-      </c>
-      <c r="E12" s="14">
-        <v>6866</v>
-      </c>
-      <c r="F12" s="14">
-        <v>2584000</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="15">
-        <v>34423</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="14">
-        <v>21</v>
-      </c>
-      <c r="E13" s="14">
-        <v>6866</v>
-      </c>
-      <c r="F13" s="14">
-        <v>2584000</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" display="rizkaaa20@gmail.com" xr:uid="{009D503E-224B-4D4B-95A8-E8AE228C500C}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{B9DAF46E-6970-415A-967D-7F23A49A27C5}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{D8E5A864-FD0C-4F5C-9A95-59BB948DED83}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{83B5DBAE-345E-4CBD-95EC-F429312E9D59}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{057F1F30-82CF-4AFC-AC3B-D6DB68BF800F}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{70A1A6BA-2AF9-4C10-9C45-EBCE55B23EE7}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{8BB50CFE-5DA1-496D-8B23-61565EFAED8F}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{ABCA13C2-F8D4-4383-977F-3A20D8089EFF}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{ABCA13C2-F8D4-4383-977F-3A20D8089EFF}"/>
+    <hyperlink ref="H7:H11" r:id="rId4" display="rizkaproject20@gmail.com" xr:uid="{DE91CCB9-F789-4943-92BC-0E413F9339F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>